--- a/제출 정리.xlsx
+++ b/제출 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\소경학\Desktop\RecOnePstage\level1-image-classification-level1-recsys-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadongjun/level1-image-classification-level1-recsys-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3D03F1-F48C-4CB0-958A-BE61A4D40C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D15FB-46BC-A546-A0D3-BC2B96E479FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="915" windowWidth="19200" windowHeight="11265" xr2:uid="{CB573D9B-27DD-4E74-8C50-48C228C7FA2F}"/>
+    <workbookView xWindow="36460" yWindow="4260" windowWidth="19200" windowHeight="11260" xr2:uid="{CB573D9B-27DD-4E74-8C50-48C228C7FA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Efficient - b7 (pure)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +49,18 @@
   </si>
   <si>
     <t>Efficient - b7 (0~30도 랜덤회전, 좌우반전 추가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient - b7 (pure) no augmentation fix labeling (3epoch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient - b6 (pure) 10epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient - b6 (colorjitter + RR +RP + RH) 10 epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +83,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +113,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -414,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A1DBC-AB63-4E2A-B72E-25C2396F57E6}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="H1" t="s">
         <v>1</v>
       </c>
@@ -430,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,7 +461,7 @@
         <v>73.682500000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -450,6 +470,39 @@
       </c>
       <c r="I3">
         <v>75.285700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>73.587299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>70.126999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="I7" s="1">
+        <v>71.396799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/제출 정리.xlsx
+++ b/제출 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadongjun/level1-image-classification-level1-recsys-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D15FB-46BC-A546-A0D3-BC2B96E479FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D72F5C6-F3DA-6D42-B64B-1C58CF510996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36460" yWindow="4260" windowWidth="19200" windowHeight="11260" xr2:uid="{CB573D9B-27DD-4E74-8C50-48C228C7FA2F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Efficient - b7 (pure)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Efficient - b6 (colorjitter + RR +RP + RH) 10 epoch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient - b6 (centercrop + colorjitter + RR +RP + RH) 10 epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A1DBC-AB63-4E2A-B72E-25C2396F57E6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -505,6 +509,17 @@
         <v>71.396799999999999</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="20">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I8" s="1">
+        <v>67.206299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
